--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -477,6 +477,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>08f8e0260c64418510cefb2b06eee5cd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>098f6bcd4621d373cade4e832627b4f6</t>
         </is>
       </c>
     </row>
